--- a/automatizar_excel/inventario_tecnologia.xlsx
+++ b/automatizar_excel/inventario_tecnologia.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Inventario Principal" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Reporte 2025-01-24" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,7 +54,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -63,7 +62,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -138,223 +136,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Inventario Principal'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Inventario Principal'!$B$2:$B$97</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Inventario Principal'!$E$2:$E$97</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Productos</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Cantidad en stock</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Distribución por Categorias</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pieChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Inventario Principal'!E1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Inventario Principal'!$C$2:$C$97</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Inventario Principal'!$E$2:$E$97</f>
-            </numRef>
-          </val>
-        </ser>
-        <firstSliceAng val="0"/>
-      </pieChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>1</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TablaInventario" displayName="TablaInventario" ref="A1:E97" headerRowCount="1">
-  <autoFilter ref="A1:E97"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Producto"/>
-    <tableColumn id="3" name="Categoria"/>
-    <tableColumn id="4" name="Precio"/>
-    <tableColumn id="5" name="Stock"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2705,2127 +2486,6 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D97">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="0090EE90"/>
-        <color rgb="00FF6B6B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation sqref="E2:E97" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Stock Invalido" error="El stock debe ser numero positivo" type="whole" operator="greaterThan">
-      <formula1>0</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Producto</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Precio</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>98.19</v>
-      </c>
-      <c r="E2" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>292.59</v>
-      </c>
-      <c r="E3" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>881.11</v>
-      </c>
-      <c r="E4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1330.07</v>
-      </c>
-      <c r="E5" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>341.72</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>961.78</v>
-      </c>
-      <c r="E7" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>376.54</v>
-      </c>
-      <c r="E8" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>264.6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1018.06</v>
-      </c>
-      <c r="E10" t="n">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1002.96</v>
-      </c>
-      <c r="E11" t="n">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Ratón</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1453.15</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>172.49</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>400.15</v>
-      </c>
-      <c r="E14" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>830.14</v>
-      </c>
-      <c r="E15" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>953.26</v>
-      </c>
-      <c r="E16" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1031.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>886.5700000000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1183.42</v>
-      </c>
-      <c r="E19" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>602.53</v>
-      </c>
-      <c r="E20" t="n">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>526.6799999999999</v>
-      </c>
-      <c r="E21" t="n">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1200</v>
-      </c>
-      <c r="E22" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>25</v>
-      </c>
-      <c r="E23" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>15</v>
-      </c>
-      <c r="E25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>800</v>
-      </c>
-      <c r="E26" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>50</v>
-      </c>
-      <c r="E27" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>300</v>
-      </c>
-      <c r="E28" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>45</v>
-      </c>
-      <c r="E29" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Ratón</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>150</v>
-      </c>
-      <c r="E31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E32" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>30</v>
-      </c>
-      <c r="E33" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>90</v>
-      </c>
-      <c r="E34" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>20</v>
-      </c>
-      <c r="E35" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>850</v>
-      </c>
-      <c r="E36" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>60</v>
-      </c>
-      <c r="E37" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>320</v>
-      </c>
-      <c r="E38" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>50</v>
-      </c>
-      <c r="E39" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Ratón</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>25</v>
-      </c>
-      <c r="E40" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>160</v>
-      </c>
-      <c r="E41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1150</v>
-      </c>
-      <c r="E42" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>35</v>
-      </c>
-      <c r="E43" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>100</v>
-      </c>
-      <c r="E44" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>25</v>
-      </c>
-      <c r="E45" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>900</v>
-      </c>
-      <c r="E46" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>70</v>
-      </c>
-      <c r="E47" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>340</v>
-      </c>
-      <c r="E48" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>55</v>
-      </c>
-      <c r="E49" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Ratón</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>30</v>
-      </c>
-      <c r="E50" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>170</v>
-      </c>
-      <c r="E51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>40</v>
-      </c>
-      <c r="E53" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>110</v>
-      </c>
-      <c r="E54" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>30</v>
-      </c>
-      <c r="E55" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>950</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>80</v>
-      </c>
-      <c r="E57" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>360</v>
-      </c>
-      <c r="E58" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>60</v>
-      </c>
-      <c r="E59" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Ratón</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>35</v>
-      </c>
-      <c r="E60" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>180</v>
-      </c>
-      <c r="E61" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>1300</v>
-      </c>
-      <c r="E62" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>45</v>
-      </c>
-      <c r="E63" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>120</v>
-      </c>
-      <c r="E64" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>35</v>
-      </c>
-      <c r="E65" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E66" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>90</v>
-      </c>
-      <c r="E67" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>380</v>
-      </c>
-      <c r="E68" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>65</v>
-      </c>
-      <c r="E69" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Ratón</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>40</v>
-      </c>
-      <c r="E70" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>190</v>
-      </c>
-      <c r="E71" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>1350</v>
-      </c>
-      <c r="E72" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>50</v>
-      </c>
-      <c r="E73" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>130</v>
-      </c>
-      <c r="E74" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>40</v>
-      </c>
-      <c r="E75" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>1050</v>
-      </c>
-      <c r="E76" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>100</v>
-      </c>
-      <c r="E77" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>400</v>
-      </c>
-      <c r="E78" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>70</v>
-      </c>
-      <c r="E79" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Ratón</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>45</v>
-      </c>
-      <c r="E80" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>200</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>1400</v>
-      </c>
-      <c r="E82" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>55</v>
-      </c>
-      <c r="E83" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>140</v>
-      </c>
-      <c r="E84" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>45</v>
-      </c>
-      <c r="E85" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>110</v>
-      </c>
-      <c r="E87" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Monitor</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>420</v>
-      </c>
-      <c r="E88" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Teclado</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>75</v>
-      </c>
-      <c r="E89" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Ratón</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>50</v>
-      </c>
-      <c r="E90" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Impresora</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>210</v>
-      </c>
-      <c r="E91" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Laptop</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>1450</v>
-      </c>
-      <c r="E92" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Camiseta</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Ropa</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>60</v>
-      </c>
-      <c r="E93" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Cafetera</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Hogar</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>150</v>
-      </c>
-      <c r="E94" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Libro</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Libros</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>50</v>
-      </c>
-      <c r="E95" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Teléfono</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Electrónica</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>1150</v>
-      </c>
-      <c r="E96" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Auriculares</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Accesorios</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>120</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>Estadisticas del inventario</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Productos: </t>
-        </is>
-      </c>
-      <c r="B100">
-        <f>COUNTA(B2:B97)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total del inventario (stock): </t>
-        </is>
-      </c>
-      <c r="B101">
-        <f>SUM(E2:E97)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Valor total inventario</t>
-        </is>
-      </c>
-      <c r="B102">
-        <f>SUMPRODUCT(D2:D97, E2:E97)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>